--- a/summary_stat_folder/supplementary figure 10 summary stats.xlsx
+++ b/summary_stat_folder/supplementary figure 10 summary stats.xlsx
@@ -23,10 +23,10 @@
     <t xml:space="preserve">Study</t>
   </si>
   <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd</t>
+    <t xml:space="preserve">log10 mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log10 sd</t>
   </si>
   <si>
     <t xml:space="preserve">Day 1</t>
@@ -431,10 +431,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2141333333.33333</v>
+        <v>9.0815117409882</v>
       </c>
       <c r="E2" t="n">
-        <v>2171154685.10806</v>
+        <v>0.560883533000909</v>
       </c>
     </row>
     <row r="3">
@@ -448,10 +448,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>797166666.666667</v>
+        <v>8.83388194420938</v>
       </c>
       <c r="E3" t="n">
-        <v>482099332.779736</v>
+        <v>0.267541478270403</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1120833333.33333</v>
+        <v>8.98597995386476</v>
       </c>
       <c r="E4" t="n">
-        <v>535464066.643754</v>
+        <v>0.290428882522969</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1065833333.33333</v>
+        <v>8.98872751732753</v>
       </c>
       <c r="E5" t="n">
-        <v>484286038.067036</v>
+        <v>0.203236869456351</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1074666666.66667</v>
+        <v>8.97387684729539</v>
       </c>
       <c r="E6" t="n">
-        <v>561163671.905681</v>
+        <v>0.252040053510732</v>
       </c>
     </row>
     <row r="7">
@@ -516,10 +516,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>713275000</v>
+        <v>8.54526150028628</v>
       </c>
       <c r="E7" t="n">
-        <v>582073735.664134</v>
+        <v>0.839993281753799</v>
       </c>
     </row>
     <row r="8">
@@ -533,10 +533,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>2556000000</v>
+        <v>9.36773922902156</v>
       </c>
       <c r="E8" t="n">
-        <v>1094615914.37362</v>
+        <v>0.217127470661799</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>591616666.666667</v>
+        <v>8.64600229814254</v>
       </c>
       <c r="E9" t="n">
-        <v>474486924.653005</v>
+        <v>0.39391540053294</v>
       </c>
     </row>
     <row r="10">
@@ -567,10 +567,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>524333333.333333</v>
+        <v>8.64389048112528</v>
       </c>
       <c r="E10" t="n">
-        <v>299308313.727946</v>
+        <v>0.305681305317148</v>
       </c>
     </row>
     <row r="11">
@@ -584,10 +584,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>678333333.333333</v>
+        <v>8.79635927508536</v>
       </c>
       <c r="E11" t="n">
-        <v>311369020.081746</v>
+        <v>0.18842981107003</v>
       </c>
     </row>
     <row r="12">
@@ -601,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>640333333.333333</v>
+        <v>8.62183536283246</v>
       </c>
       <c r="E12" t="n">
-        <v>587826788.546876</v>
+        <v>0.548299732979768</v>
       </c>
     </row>
     <row r="13">
@@ -618,10 +618,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>2153750000</v>
+        <v>9.24763830120195</v>
       </c>
       <c r="E13" t="n">
-        <v>1452178679.31831</v>
+        <v>0.324261188151481</v>
       </c>
     </row>
     <row r="14">
@@ -635,10 +635,10 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>1469850000</v>
+        <v>8.95708935459208</v>
       </c>
       <c r="E14" t="n">
-        <v>1266953959.30555</v>
+        <v>0.581938428066334</v>
       </c>
     </row>
     <row r="15">
@@ -652,10 +652,10 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>460550000</v>
+        <v>8.58703947426276</v>
       </c>
       <c r="E15" t="n">
-        <v>212186274.296902</v>
+        <v>0.338464209818941</v>
       </c>
     </row>
     <row r="16">
@@ -669,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>1072083333.33333</v>
+        <v>8.70992662630511</v>
       </c>
       <c r="E16" t="n">
-        <v>1429467118.07816</v>
+        <v>0.591838602804627</v>
       </c>
     </row>
     <row r="17">
@@ -686,10 +686,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>543600000</v>
+        <v>8.56853077451129</v>
       </c>
       <c r="E17" t="n">
-        <v>428114283.80749</v>
+        <v>0.482960529406324</v>
       </c>
     </row>
     <row r="18">
@@ -703,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>787333333.333333</v>
+        <v>8.79562276815422</v>
       </c>
       <c r="E18" t="n">
-        <v>464887800.083705</v>
+        <v>0.363676289854048</v>
       </c>
     </row>
     <row r="19">
@@ -720,10 +720,10 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>888000000</v>
+        <v>8.73629920907621</v>
       </c>
       <c r="E19" t="n">
-        <v>1104133144.14522</v>
+        <v>0.440651556198468</v>
       </c>
     </row>
     <row r="20">
@@ -737,10 +737,10 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>845000000</v>
+        <v>8.86669431343842</v>
       </c>
       <c r="E20" t="n">
-        <v>538983116.618693</v>
+        <v>0.240298328774395</v>
       </c>
     </row>
     <row r="21">
@@ -754,10 +754,10 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>575233333.333333</v>
+        <v>8.58221371418316</v>
       </c>
       <c r="E21" t="n">
-        <v>412465279.34684</v>
+        <v>0.522512154265031</v>
       </c>
     </row>
     <row r="22">
@@ -771,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>544684000</v>
+        <v>8.31352584981283</v>
       </c>
       <c r="E22" t="n">
-        <v>399052489.37953</v>
+        <v>1.09456374857094</v>
       </c>
     </row>
     <row r="23">
@@ -788,10 +788,10 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>576333333.333333</v>
+        <v>8.61061766468389</v>
       </c>
       <c r="E23" t="n">
-        <v>645944476.458052</v>
+        <v>0.35290039597624</v>
       </c>
     </row>
     <row r="24">
@@ -805,10 +805,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>84200000</v>
+        <v>7.87040232763843</v>
       </c>
       <c r="E24" t="n">
-        <v>56285699.7824492</v>
+        <v>0.315397000081903</v>
       </c>
     </row>
     <row r="25">
@@ -822,10 +822,10 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>511250000</v>
+        <v>8.67759207997035</v>
       </c>
       <c r="E25" t="n">
-        <v>193599888.085367</v>
+        <v>0.203368238740061</v>
       </c>
     </row>
     <row r="26">
@@ -839,10 +839,10 @@
         <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>173960000</v>
+        <v>7.851104188672</v>
       </c>
       <c r="E26" t="n">
-        <v>199632055.54219</v>
+        <v>0.828796074880238</v>
       </c>
     </row>
     <row r="27">
@@ -856,10 +856,10 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>205083333.333333</v>
+        <v>8.25511230711757</v>
       </c>
       <c r="E27" t="n">
-        <v>106137842.764335</v>
+        <v>0.25442704315756</v>
       </c>
     </row>
     <row r="28">
@@ -873,10 +873,10 @@
         <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>18534166.6666667</v>
+        <v>6.96154005980229</v>
       </c>
       <c r="E28" t="n">
-        <v>19817477.2402207</v>
+        <v>0.701148845461913</v>
       </c>
     </row>
     <row r="29">
@@ -890,10 +890,10 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>11354370</v>
+        <v>6.32417117848861</v>
       </c>
       <c r="E29" t="n">
-        <v>12346717.2163859</v>
+        <v>1.38762828456548</v>
       </c>
     </row>
     <row r="30">
@@ -907,10 +907,10 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>705999</v>
+        <v>3.69141973923717</v>
       </c>
       <c r="E30" t="n">
-        <v>1215229.26236032</v>
+        <v>2.37455044756191</v>
       </c>
     </row>
     <row r="31">
@@ -924,10 +924,10 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>2030283.33333333</v>
+        <v>5.89871449281301</v>
       </c>
       <c r="E31" t="n">
-        <v>2053319.98521094</v>
+        <v>0.838868261159922</v>
       </c>
     </row>
     <row r="32">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>15809816.6666667</v>
+        <v>6.5532249182237</v>
       </c>
       <c r="E32" t="n">
-        <v>28437633.4634524</v>
+        <v>0.967169048206081</v>
       </c>
     </row>
     <row r="33">
@@ -958,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>27587333.3333333</v>
+        <v>6.36524959517012</v>
       </c>
       <c r="E33" t="n">
-        <v>49325923.5155984</v>
+        <v>1.21720612288495</v>
       </c>
     </row>
     <row r="34">
@@ -975,10 +975,10 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>17651156</v>
+        <v>6.13894138767063</v>
       </c>
       <c r="E34" t="n">
-        <v>33240660.1312561</v>
+        <v>1.49150826315435</v>
       </c>
     </row>
     <row r="35">
@@ -992,10 +992,10 @@
         <v>8</v>
       </c>
       <c r="D35" t="n">
-        <v>108916666.666667</v>
+        <v>7.86550424222228</v>
       </c>
       <c r="E35" t="n">
-        <v>95702422.4702106</v>
+        <v>0.438440659900706</v>
       </c>
     </row>
     <row r="36">
@@ -1009,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
